--- a/Week 4/seasonality.xlsx
+++ b/Week 4/seasonality.xlsx
@@ -622,6 +622,13 @@
             <a:r>
               <a:rPr lang="en-US" baseline="0%"/>
               <a:t> of Seasonality</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0%"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t>threshold = 5*Sd = ~.3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14774,16 +14781,16 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15111,7 +15118,7 @@
   <dimension ref="A1:H2216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Week 4/seasonality.xlsx
+++ b/Week 4/seasonality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Years" sheetId="1" r:id="rId1"/>
@@ -15153,8 +15153,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C1726" sqref="C1726"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50647,7 +50647,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778B73AB-980B-364A-BEC3-9AB3FC73F161}">
   <dimension ref="A1:AO124"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>

--- a/Week 4/seasonality.xlsx
+++ b/Week 4/seasonality.xlsx
@@ -574,17 +574,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -50634,7 +50624,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>$D$1760</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50647,8 +50637,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778B73AB-980B-364A-BEC3-9AB3FC73F161}">
   <dimension ref="A1:AO124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN21" sqref="AN21"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67726,7 +67716,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:AM124">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>$AO$4</formula>
     </cfRule>
   </conditionalFormatting>
